--- a/Availability.xlsx
+++ b/Availability.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kilianleemann/Documents/HSG/Master/MLE/3_Semester/Programming with Advanced Computer Languages/Project/Dateien/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kilianleemann/Documents/HSG/Master/MLE/3_Semester/Programming with Advanced Computer Languages/Project/hsg-workplanapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B950CACF-CC0D-2944-B4AF-EC26CB742914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC5C896-08FE-E642-B36E-3A667B69A49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{687A566E-9070-F143-8DF5-DB9B81D5A7DC}"/>
   </bookViews>
@@ -490,61 +490,61 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -869,7 +869,7 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -880,45 +880,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="21" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="17" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
       <c r="V1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -979,73 +979,73 @@
       <c r="U2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="22"/>
+      <c r="V2" s="17"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23">
-        <v>1</v>
-      </c>
-      <c r="C3" s="24">
-        <v>1</v>
-      </c>
-      <c r="D3" s="24">
-        <v>1</v>
-      </c>
-      <c r="E3" s="25">
-        <v>1</v>
-      </c>
-      <c r="F3" s="23">
-        <v>1</v>
-      </c>
-      <c r="G3" s="24">
-        <v>1</v>
-      </c>
-      <c r="H3" s="24">
-        <v>1</v>
-      </c>
-      <c r="I3" s="25">
-        <v>1</v>
-      </c>
-      <c r="J3" s="23">
-        <v>1</v>
-      </c>
-      <c r="K3" s="24">
-        <v>1</v>
-      </c>
-      <c r="L3" s="24">
-        <v>1</v>
-      </c>
-      <c r="M3" s="25">
-        <v>1</v>
-      </c>
-      <c r="N3" s="23">
-        <v>1</v>
-      </c>
-      <c r="O3" s="24">
-        <v>1</v>
-      </c>
-      <c r="P3" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="25">
-        <v>1</v>
-      </c>
-      <c r="R3" s="23">
-        <v>1</v>
-      </c>
-      <c r="S3" s="24">
-        <v>1</v>
-      </c>
-      <c r="T3" s="24">
-        <v>1</v>
-      </c>
-      <c r="U3" s="25">
-        <v>1</v>
-      </c>
-      <c r="V3" s="26">
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19">
+        <v>1</v>
+      </c>
+      <c r="H3" s="19">
+        <v>1</v>
+      </c>
+      <c r="I3" s="20">
+        <v>1</v>
+      </c>
+      <c r="J3" s="18">
+        <v>1</v>
+      </c>
+      <c r="K3" s="19">
+        <v>1</v>
+      </c>
+      <c r="L3" s="19">
+        <v>1</v>
+      </c>
+      <c r="M3" s="20">
+        <v>1</v>
+      </c>
+      <c r="N3" s="18">
+        <v>1</v>
+      </c>
+      <c r="O3" s="19">
+        <v>1</v>
+      </c>
+      <c r="P3" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>1</v>
+      </c>
+      <c r="R3" s="18">
+        <v>1</v>
+      </c>
+      <c r="S3" s="19">
+        <v>1</v>
+      </c>
+      <c r="T3" s="19">
+        <v>1</v>
+      </c>
+      <c r="U3" s="20">
+        <v>1</v>
+      </c>
+      <c r="V3" s="21">
         <v>8</v>
       </c>
     </row>
@@ -1053,67 +1053,67 @@
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="27">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28">
-        <v>1</v>
-      </c>
-      <c r="D4" s="28">
-        <v>1</v>
-      </c>
-      <c r="E4" s="29">
-        <v>1</v>
-      </c>
-      <c r="F4" s="27">
-        <v>1</v>
-      </c>
-      <c r="G4" s="28">
-        <v>1</v>
-      </c>
-      <c r="H4" s="28">
-        <v>1</v>
-      </c>
-      <c r="I4" s="29">
-        <v>1</v>
-      </c>
-      <c r="J4" s="27">
-        <v>1</v>
-      </c>
-      <c r="K4" s="28">
-        <v>1</v>
-      </c>
-      <c r="L4" s="28">
-        <v>1</v>
-      </c>
-      <c r="M4" s="29">
-        <v>1</v>
-      </c>
-      <c r="N4" s="27">
-        <v>1</v>
-      </c>
-      <c r="O4" s="28">
-        <v>1</v>
-      </c>
-      <c r="P4" s="28">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="29">
-        <v>1</v>
-      </c>
-      <c r="R4" s="30">
-        <v>1</v>
-      </c>
-      <c r="S4" s="28">
-        <v>1</v>
-      </c>
-      <c r="T4" s="28">
-        <v>2</v>
-      </c>
-      <c r="U4" s="29">
-        <v>1</v>
-      </c>
-      <c r="V4" s="31">
+      <c r="B4" s="22">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1</v>
+      </c>
+      <c r="G4" s="23">
+        <v>1</v>
+      </c>
+      <c r="H4" s="23">
+        <v>1</v>
+      </c>
+      <c r="I4" s="24">
+        <v>1</v>
+      </c>
+      <c r="J4" s="22">
+        <v>1</v>
+      </c>
+      <c r="K4" s="23">
+        <v>1</v>
+      </c>
+      <c r="L4" s="23">
+        <v>1</v>
+      </c>
+      <c r="M4" s="24">
+        <v>1</v>
+      </c>
+      <c r="N4" s="22">
+        <v>1</v>
+      </c>
+      <c r="O4" s="23">
+        <v>1</v>
+      </c>
+      <c r="P4" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>1</v>
+      </c>
+      <c r="R4" s="25">
+        <v>1</v>
+      </c>
+      <c r="S4" s="23">
+        <v>1</v>
+      </c>
+      <c r="T4" s="23">
+        <v>2</v>
+      </c>
+      <c r="U4" s="24">
+        <v>1</v>
+      </c>
+      <c r="V4" s="26">
         <v>8</v>
       </c>
     </row>
@@ -1121,67 +1121,67 @@
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="32">
-        <v>2</v>
-      </c>
-      <c r="C5" s="33">
-        <v>2</v>
-      </c>
-      <c r="D5" s="33">
-        <v>2</v>
-      </c>
-      <c r="E5" s="34">
-        <v>2</v>
-      </c>
-      <c r="F5" s="32">
-        <v>2</v>
-      </c>
-      <c r="G5" s="33">
-        <v>2</v>
-      </c>
-      <c r="H5" s="33">
-        <v>2</v>
-      </c>
-      <c r="I5" s="34">
-        <v>2</v>
-      </c>
-      <c r="J5" s="32">
-        <v>2</v>
-      </c>
-      <c r="K5" s="33">
-        <v>2</v>
-      </c>
-      <c r="L5" s="33">
-        <v>2</v>
-      </c>
-      <c r="M5" s="34">
-        <v>2</v>
-      </c>
-      <c r="N5" s="32">
-        <v>2</v>
-      </c>
-      <c r="O5" s="33">
-        <v>2</v>
-      </c>
-      <c r="P5" s="33">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="34">
-        <v>2</v>
-      </c>
-      <c r="R5" s="35">
-        <v>2</v>
-      </c>
-      <c r="S5" s="33">
-        <v>2</v>
-      </c>
-      <c r="T5" s="33">
-        <v>2</v>
-      </c>
-      <c r="U5" s="34">
-        <v>2</v>
-      </c>
-      <c r="V5" s="31">
+      <c r="B5" s="27">
+        <v>2</v>
+      </c>
+      <c r="C5" s="28">
+        <v>2</v>
+      </c>
+      <c r="D5" s="28">
+        <v>2</v>
+      </c>
+      <c r="E5" s="29">
+        <v>2</v>
+      </c>
+      <c r="F5" s="27">
+        <v>2</v>
+      </c>
+      <c r="G5" s="28">
+        <v>2</v>
+      </c>
+      <c r="H5" s="28">
+        <v>2</v>
+      </c>
+      <c r="I5" s="29">
+        <v>2</v>
+      </c>
+      <c r="J5" s="27">
+        <v>2</v>
+      </c>
+      <c r="K5" s="28">
+        <v>2</v>
+      </c>
+      <c r="L5" s="28">
+        <v>2</v>
+      </c>
+      <c r="M5" s="29">
+        <v>2</v>
+      </c>
+      <c r="N5" s="27">
+        <v>2</v>
+      </c>
+      <c r="O5" s="28">
+        <v>2</v>
+      </c>
+      <c r="P5" s="28">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>2</v>
+      </c>
+      <c r="R5" s="30">
+        <v>2</v>
+      </c>
+      <c r="S5" s="28">
+        <v>2</v>
+      </c>
+      <c r="T5" s="28">
+        <v>2</v>
+      </c>
+      <c r="U5" s="29">
+        <v>2</v>
+      </c>
+      <c r="V5" s="26">
         <v>8</v>
       </c>
     </row>
@@ -1189,67 +1189,67 @@
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="27">
-        <v>3</v>
-      </c>
-      <c r="C6" s="28">
-        <v>3</v>
-      </c>
-      <c r="D6" s="28">
-        <v>3</v>
-      </c>
-      <c r="E6" s="29">
-        <v>3</v>
-      </c>
-      <c r="F6" s="27">
-        <v>3</v>
-      </c>
-      <c r="G6" s="28">
-        <v>3</v>
-      </c>
-      <c r="H6" s="28">
-        <v>3</v>
-      </c>
-      <c r="I6" s="29">
-        <v>3</v>
-      </c>
-      <c r="J6" s="27">
-        <v>3</v>
-      </c>
-      <c r="K6" s="28">
-        <v>3</v>
-      </c>
-      <c r="L6" s="28">
-        <v>3</v>
-      </c>
-      <c r="M6" s="29">
-        <v>3</v>
-      </c>
-      <c r="N6" s="27">
-        <v>3</v>
-      </c>
-      <c r="O6" s="28">
-        <v>3</v>
-      </c>
-      <c r="P6" s="28">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="29">
-        <v>3</v>
-      </c>
-      <c r="R6" s="30">
-        <v>2</v>
-      </c>
-      <c r="S6" s="28">
-        <v>2</v>
-      </c>
-      <c r="T6" s="28">
-        <v>2</v>
-      </c>
-      <c r="U6" s="29">
-        <v>2</v>
-      </c>
-      <c r="V6" s="31">
+      <c r="B6" s="22">
+        <v>3</v>
+      </c>
+      <c r="C6" s="23">
+        <v>3</v>
+      </c>
+      <c r="D6" s="23">
+        <v>3</v>
+      </c>
+      <c r="E6" s="24">
+        <v>3</v>
+      </c>
+      <c r="F6" s="22">
+        <v>3</v>
+      </c>
+      <c r="G6" s="23">
+        <v>3</v>
+      </c>
+      <c r="H6" s="23">
+        <v>3</v>
+      </c>
+      <c r="I6" s="24">
+        <v>3</v>
+      </c>
+      <c r="J6" s="22">
+        <v>3</v>
+      </c>
+      <c r="K6" s="23">
+        <v>3</v>
+      </c>
+      <c r="L6" s="23">
+        <v>3</v>
+      </c>
+      <c r="M6" s="24">
+        <v>3</v>
+      </c>
+      <c r="N6" s="22">
+        <v>3</v>
+      </c>
+      <c r="O6" s="23">
+        <v>3</v>
+      </c>
+      <c r="P6" s="23">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>3</v>
+      </c>
+      <c r="R6" s="25">
+        <v>2</v>
+      </c>
+      <c r="S6" s="23">
+        <v>2</v>
+      </c>
+      <c r="T6" s="23">
+        <v>2</v>
+      </c>
+      <c r="U6" s="24">
+        <v>2</v>
+      </c>
+      <c r="V6" s="26">
         <v>8</v>
       </c>
     </row>
@@ -1257,67 +1257,67 @@
       <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="32">
-        <v>0</v>
-      </c>
-      <c r="C7" s="33">
-        <v>0</v>
-      </c>
-      <c r="D7" s="33">
-        <v>0</v>
-      </c>
-      <c r="E7" s="34">
-        <v>0</v>
-      </c>
-      <c r="F7" s="32">
-        <v>0</v>
-      </c>
-      <c r="G7" s="33">
-        <v>0</v>
-      </c>
-      <c r="H7" s="33">
-        <v>0</v>
-      </c>
-      <c r="I7" s="34">
-        <v>0</v>
-      </c>
-      <c r="J7" s="32">
-        <v>0</v>
-      </c>
-      <c r="K7" s="33">
-        <v>0</v>
-      </c>
-      <c r="L7" s="33">
-        <v>0</v>
-      </c>
-      <c r="M7" s="34">
-        <v>0</v>
-      </c>
-      <c r="N7" s="32">
-        <v>0</v>
-      </c>
-      <c r="O7" s="33">
-        <v>0</v>
-      </c>
-      <c r="P7" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="34">
-        <v>0</v>
-      </c>
-      <c r="R7" s="35">
-        <v>0</v>
-      </c>
-      <c r="S7" s="33">
-        <v>0</v>
-      </c>
-      <c r="T7" s="33">
-        <v>0</v>
-      </c>
-      <c r="U7" s="34">
-        <v>0</v>
-      </c>
-      <c r="V7" s="31">
+      <c r="B7" s="27">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28">
+        <v>2</v>
+      </c>
+      <c r="D7" s="28">
+        <v>3</v>
+      </c>
+      <c r="E7" s="29">
+        <v>3</v>
+      </c>
+      <c r="F7" s="27">
+        <v>1</v>
+      </c>
+      <c r="G7" s="28">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28">
+        <v>0</v>
+      </c>
+      <c r="I7" s="29">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0</v>
+      </c>
+      <c r="K7" s="28">
+        <v>2</v>
+      </c>
+      <c r="L7" s="28">
+        <v>2</v>
+      </c>
+      <c r="M7" s="29">
+        <v>2</v>
+      </c>
+      <c r="N7" s="27">
+        <v>0</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0</v>
+      </c>
+      <c r="P7" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>0</v>
+      </c>
+      <c r="R7" s="30">
+        <v>0</v>
+      </c>
+      <c r="S7" s="28">
+        <v>2</v>
+      </c>
+      <c r="T7" s="28">
+        <v>3</v>
+      </c>
+      <c r="U7" s="29">
+        <v>2</v>
+      </c>
+      <c r="V7" s="26">
         <v>10</v>
       </c>
     </row>
@@ -1325,67 +1325,67 @@
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="27">
-        <v>0</v>
-      </c>
-      <c r="C8" s="28">
-        <v>0</v>
-      </c>
-      <c r="D8" s="28">
-        <v>0</v>
-      </c>
-      <c r="E8" s="29">
-        <v>0</v>
-      </c>
-      <c r="F8" s="27">
-        <v>0</v>
-      </c>
-      <c r="G8" s="28">
-        <v>0</v>
-      </c>
-      <c r="H8" s="28">
-        <v>0</v>
-      </c>
-      <c r="I8" s="29">
-        <v>0</v>
-      </c>
-      <c r="J8" s="27">
-        <v>0</v>
-      </c>
-      <c r="K8" s="28">
-        <v>0</v>
-      </c>
-      <c r="L8" s="28">
-        <v>0</v>
-      </c>
-      <c r="M8" s="29">
-        <v>0</v>
-      </c>
-      <c r="N8" s="27">
-        <v>0</v>
-      </c>
-      <c r="O8" s="28">
-        <v>0</v>
-      </c>
-      <c r="P8" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="29">
-        <v>0</v>
-      </c>
-      <c r="R8" s="30">
-        <v>0</v>
-      </c>
-      <c r="S8" s="28">
-        <v>0</v>
-      </c>
-      <c r="T8" s="28">
-        <v>0</v>
-      </c>
-      <c r="U8" s="29">
-        <v>0</v>
-      </c>
-      <c r="V8" s="31">
+      <c r="B8" s="22">
+        <v>3</v>
+      </c>
+      <c r="C8" s="23">
+        <v>3</v>
+      </c>
+      <c r="D8" s="23">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="23">
+        <v>2</v>
+      </c>
+      <c r="I8" s="24">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="23">
+        <v>0</v>
+      </c>
+      <c r="L8" s="23">
+        <v>0</v>
+      </c>
+      <c r="M8" s="24">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
+      <c r="O8" s="23">
+        <v>2</v>
+      </c>
+      <c r="P8" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>0</v>
+      </c>
+      <c r="R8" s="25">
+        <v>2</v>
+      </c>
+      <c r="S8" s="23">
+        <v>2</v>
+      </c>
+      <c r="T8" s="23">
+        <v>2</v>
+      </c>
+      <c r="U8" s="24">
+        <v>0</v>
+      </c>
+      <c r="V8" s="26">
         <v>12</v>
       </c>
     </row>
@@ -1393,67 +1393,67 @@
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="32">
-        <v>0</v>
-      </c>
-      <c r="C9" s="33">
-        <v>0</v>
-      </c>
-      <c r="D9" s="33">
-        <v>0</v>
-      </c>
-      <c r="E9" s="34">
-        <v>0</v>
-      </c>
-      <c r="F9" s="32">
-        <v>0</v>
-      </c>
-      <c r="G9" s="33">
-        <v>0</v>
-      </c>
-      <c r="H9" s="33">
-        <v>0</v>
-      </c>
-      <c r="I9" s="34">
-        <v>0</v>
-      </c>
-      <c r="J9" s="32">
-        <v>0</v>
-      </c>
-      <c r="K9" s="33">
-        <v>0</v>
-      </c>
-      <c r="L9" s="33">
-        <v>0</v>
-      </c>
-      <c r="M9" s="34">
-        <v>0</v>
-      </c>
-      <c r="N9" s="32">
-        <v>0</v>
-      </c>
-      <c r="O9" s="33">
-        <v>0</v>
-      </c>
-      <c r="P9" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="34">
-        <v>0</v>
-      </c>
-      <c r="R9" s="35">
-        <v>0</v>
-      </c>
-      <c r="S9" s="33">
-        <v>0</v>
-      </c>
-      <c r="T9" s="33">
-        <v>0</v>
-      </c>
-      <c r="U9" s="34">
-        <v>0</v>
-      </c>
-      <c r="V9" s="31">
+      <c r="B9" s="27">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28">
+        <v>3</v>
+      </c>
+      <c r="D9" s="28">
+        <v>2</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="27">
+        <v>1</v>
+      </c>
+      <c r="G9" s="28">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28">
+        <v>2</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0</v>
+      </c>
+      <c r="J9" s="27">
+        <v>0</v>
+      </c>
+      <c r="K9" s="28">
+        <v>0</v>
+      </c>
+      <c r="L9" s="28">
+        <v>0</v>
+      </c>
+      <c r="M9" s="29">
+        <v>0</v>
+      </c>
+      <c r="N9" s="27">
+        <v>0</v>
+      </c>
+      <c r="O9" s="28">
+        <v>2</v>
+      </c>
+      <c r="P9" s="28">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>0</v>
+      </c>
+      <c r="R9" s="30">
+        <v>1</v>
+      </c>
+      <c r="S9" s="28">
+        <v>2</v>
+      </c>
+      <c r="T9" s="28">
+        <v>0</v>
+      </c>
+      <c r="U9" s="29">
+        <v>0</v>
+      </c>
+      <c r="V9" s="26">
         <v>12</v>
       </c>
     </row>
@@ -1461,67 +1461,67 @@
       <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="27">
-        <v>0</v>
-      </c>
-      <c r="C10" s="28">
-        <v>0</v>
-      </c>
-      <c r="D10" s="28">
-        <v>0</v>
-      </c>
-      <c r="E10" s="29">
-        <v>0</v>
-      </c>
-      <c r="F10" s="27">
-        <v>0</v>
-      </c>
-      <c r="G10" s="28">
-        <v>0</v>
-      </c>
-      <c r="H10" s="28">
-        <v>0</v>
-      </c>
-      <c r="I10" s="29">
-        <v>0</v>
-      </c>
-      <c r="J10" s="27">
-        <v>0</v>
-      </c>
-      <c r="K10" s="28">
-        <v>0</v>
-      </c>
-      <c r="L10" s="28">
-        <v>0</v>
-      </c>
-      <c r="M10" s="29">
-        <v>0</v>
-      </c>
-      <c r="N10" s="27">
-        <v>0</v>
-      </c>
-      <c r="O10" s="28">
-        <v>0</v>
-      </c>
-      <c r="P10" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="29">
-        <v>0</v>
-      </c>
-      <c r="R10" s="30">
-        <v>0</v>
-      </c>
-      <c r="S10" s="28">
-        <v>0</v>
-      </c>
-      <c r="T10" s="28">
-        <v>0</v>
-      </c>
-      <c r="U10" s="29">
-        <v>0</v>
-      </c>
-      <c r="V10" s="31">
+      <c r="B10" s="22">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23">
+        <v>2</v>
+      </c>
+      <c r="D10" s="23">
+        <v>3</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
+        <v>3</v>
+      </c>
+      <c r="H10" s="23">
+        <v>2</v>
+      </c>
+      <c r="I10" s="24">
+        <v>1</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0</v>
+      </c>
+      <c r="K10" s="23">
+        <v>2</v>
+      </c>
+      <c r="L10" s="23">
+        <v>2</v>
+      </c>
+      <c r="M10" s="24">
+        <v>2</v>
+      </c>
+      <c r="N10" s="22">
+        <v>0</v>
+      </c>
+      <c r="O10" s="23">
+        <v>0</v>
+      </c>
+      <c r="P10" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>0</v>
+      </c>
+      <c r="R10" s="25">
+        <v>0</v>
+      </c>
+      <c r="S10" s="23">
+        <v>0</v>
+      </c>
+      <c r="T10" s="23">
+        <v>3</v>
+      </c>
+      <c r="U10" s="24">
+        <v>3</v>
+      </c>
+      <c r="V10" s="26">
         <v>12</v>
       </c>
     </row>
@@ -1529,67 +1529,67 @@
       <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="32">
-        <v>3</v>
-      </c>
-      <c r="C11" s="33">
-        <v>3</v>
-      </c>
-      <c r="D11" s="33">
-        <v>3</v>
-      </c>
-      <c r="E11" s="34">
-        <v>3</v>
-      </c>
-      <c r="F11" s="32">
-        <v>3</v>
-      </c>
-      <c r="G11" s="33">
-        <v>3</v>
-      </c>
-      <c r="H11" s="33">
-        <v>3</v>
-      </c>
-      <c r="I11" s="34">
-        <v>3</v>
-      </c>
-      <c r="J11" s="32">
-        <v>3</v>
-      </c>
-      <c r="K11" s="33">
-        <v>3</v>
-      </c>
-      <c r="L11" s="33">
-        <v>3</v>
-      </c>
-      <c r="M11" s="34">
-        <v>3</v>
-      </c>
-      <c r="N11" s="32">
-        <v>3</v>
-      </c>
-      <c r="O11" s="33">
-        <v>3</v>
-      </c>
-      <c r="P11" s="33">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="34">
-        <v>3</v>
-      </c>
-      <c r="R11" s="35">
-        <v>3</v>
-      </c>
-      <c r="S11" s="33">
-        <v>3</v>
-      </c>
-      <c r="T11" s="33">
-        <v>3</v>
-      </c>
-      <c r="U11" s="34">
-        <v>3</v>
-      </c>
-      <c r="V11" s="31">
+      <c r="B11" s="27">
+        <v>3</v>
+      </c>
+      <c r="C11" s="28">
+        <v>3</v>
+      </c>
+      <c r="D11" s="28">
+        <v>3</v>
+      </c>
+      <c r="E11" s="29">
+        <v>3</v>
+      </c>
+      <c r="F11" s="27">
+        <v>3</v>
+      </c>
+      <c r="G11" s="28">
+        <v>3</v>
+      </c>
+      <c r="H11" s="28">
+        <v>3</v>
+      </c>
+      <c r="I11" s="29">
+        <v>3</v>
+      </c>
+      <c r="J11" s="27">
+        <v>3</v>
+      </c>
+      <c r="K11" s="28">
+        <v>3</v>
+      </c>
+      <c r="L11" s="28">
+        <v>3</v>
+      </c>
+      <c r="M11" s="29">
+        <v>3</v>
+      </c>
+      <c r="N11" s="27">
+        <v>3</v>
+      </c>
+      <c r="O11" s="28">
+        <v>3</v>
+      </c>
+      <c r="P11" s="28">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>3</v>
+      </c>
+      <c r="R11" s="30">
+        <v>3</v>
+      </c>
+      <c r="S11" s="28">
+        <v>3</v>
+      </c>
+      <c r="T11" s="28">
+        <v>3</v>
+      </c>
+      <c r="U11" s="29">
+        <v>3</v>
+      </c>
+      <c r="V11" s="26">
         <v>10</v>
       </c>
     </row>
@@ -1597,67 +1597,67 @@
       <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="27">
-        <v>3</v>
-      </c>
-      <c r="C12" s="28">
-        <v>3</v>
-      </c>
-      <c r="D12" s="28">
-        <v>3</v>
-      </c>
-      <c r="E12" s="29">
-        <v>3</v>
-      </c>
-      <c r="F12" s="27">
-        <v>3</v>
-      </c>
-      <c r="G12" s="28">
-        <v>3</v>
-      </c>
-      <c r="H12" s="28">
-        <v>3</v>
-      </c>
-      <c r="I12" s="29">
-        <v>3</v>
-      </c>
-      <c r="J12" s="27">
-        <v>3</v>
-      </c>
-      <c r="K12" s="28">
-        <v>3</v>
-      </c>
-      <c r="L12" s="28">
-        <v>3</v>
-      </c>
-      <c r="M12" s="29">
-        <v>3</v>
-      </c>
-      <c r="N12" s="27">
-        <v>3</v>
-      </c>
-      <c r="O12" s="28">
-        <v>3</v>
-      </c>
-      <c r="P12" s="28">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="29">
-        <v>3</v>
-      </c>
-      <c r="R12" s="30">
-        <v>3</v>
-      </c>
-      <c r="S12" s="28">
-        <v>3</v>
-      </c>
-      <c r="T12" s="28">
-        <v>3</v>
-      </c>
-      <c r="U12" s="29">
-        <v>3</v>
-      </c>
-      <c r="V12" s="31">
+      <c r="B12" s="22">
+        <v>3</v>
+      </c>
+      <c r="C12" s="23">
+        <v>3</v>
+      </c>
+      <c r="D12" s="23">
+        <v>3</v>
+      </c>
+      <c r="E12" s="24">
+        <v>3</v>
+      </c>
+      <c r="F12" s="22">
+        <v>3</v>
+      </c>
+      <c r="G12" s="23">
+        <v>3</v>
+      </c>
+      <c r="H12" s="23">
+        <v>3</v>
+      </c>
+      <c r="I12" s="24">
+        <v>3</v>
+      </c>
+      <c r="J12" s="22">
+        <v>3</v>
+      </c>
+      <c r="K12" s="23">
+        <v>3</v>
+      </c>
+      <c r="L12" s="23">
+        <v>3</v>
+      </c>
+      <c r="M12" s="24">
+        <v>3</v>
+      </c>
+      <c r="N12" s="22">
+        <v>3</v>
+      </c>
+      <c r="O12" s="23">
+        <v>3</v>
+      </c>
+      <c r="P12" s="23">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>3</v>
+      </c>
+      <c r="R12" s="25">
+        <v>3</v>
+      </c>
+      <c r="S12" s="23">
+        <v>3</v>
+      </c>
+      <c r="T12" s="23">
+        <v>3</v>
+      </c>
+      <c r="U12" s="24">
+        <v>3</v>
+      </c>
+      <c r="V12" s="26">
         <v>10</v>
       </c>
     </row>
@@ -1665,67 +1665,67 @@
       <c r="A13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="32">
-        <v>3</v>
-      </c>
-      <c r="C13" s="33">
-        <v>3</v>
-      </c>
-      <c r="D13" s="33">
-        <v>3</v>
-      </c>
-      <c r="E13" s="34">
-        <v>3</v>
-      </c>
-      <c r="F13" s="32">
-        <v>3</v>
-      </c>
-      <c r="G13" s="33">
-        <v>3</v>
-      </c>
-      <c r="H13" s="33">
-        <v>3</v>
-      </c>
-      <c r="I13" s="34">
-        <v>3</v>
-      </c>
-      <c r="J13" s="32">
-        <v>3</v>
-      </c>
-      <c r="K13" s="33">
-        <v>3</v>
-      </c>
-      <c r="L13" s="33">
-        <v>3</v>
-      </c>
-      <c r="M13" s="34">
-        <v>3</v>
-      </c>
-      <c r="N13" s="32">
-        <v>3</v>
-      </c>
-      <c r="O13" s="33">
-        <v>3</v>
-      </c>
-      <c r="P13" s="33">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="34">
-        <v>3</v>
-      </c>
-      <c r="R13" s="35">
-        <v>3</v>
-      </c>
-      <c r="S13" s="33">
-        <v>3</v>
-      </c>
-      <c r="T13" s="33">
-        <v>3</v>
-      </c>
-      <c r="U13" s="34">
-        <v>3</v>
-      </c>
-      <c r="V13" s="31">
+      <c r="B13" s="27">
+        <v>3</v>
+      </c>
+      <c r="C13" s="28">
+        <v>3</v>
+      </c>
+      <c r="D13" s="28">
+        <v>3</v>
+      </c>
+      <c r="E13" s="29">
+        <v>3</v>
+      </c>
+      <c r="F13" s="27">
+        <v>3</v>
+      </c>
+      <c r="G13" s="28">
+        <v>3</v>
+      </c>
+      <c r="H13" s="28">
+        <v>3</v>
+      </c>
+      <c r="I13" s="29">
+        <v>3</v>
+      </c>
+      <c r="J13" s="27">
+        <v>3</v>
+      </c>
+      <c r="K13" s="28">
+        <v>3</v>
+      </c>
+      <c r="L13" s="28">
+        <v>3</v>
+      </c>
+      <c r="M13" s="29">
+        <v>3</v>
+      </c>
+      <c r="N13" s="27">
+        <v>3</v>
+      </c>
+      <c r="O13" s="28">
+        <v>3</v>
+      </c>
+      <c r="P13" s="28">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>3</v>
+      </c>
+      <c r="R13" s="30">
+        <v>3</v>
+      </c>
+      <c r="S13" s="28">
+        <v>3</v>
+      </c>
+      <c r="T13" s="28">
+        <v>3</v>
+      </c>
+      <c r="U13" s="29">
+        <v>3</v>
+      </c>
+      <c r="V13" s="26">
         <v>10</v>
       </c>
     </row>
@@ -1752,6 +1752,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010017C71A42271A274DA461E095D9401325" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="30aafbe8ec0b55f3bf6040fa90919087">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9853051-2fc0-46db-a70f-64559884f8a6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6cc360300f9f06ae66523ed34dd87d6" ns2:_="">
     <xsd:import namespace="f9853051-2fc0-46db-a70f-64559884f8a6"/>
@@ -1921,12 +1927,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5593E7EE-975F-4520-932F-F8B899ECF7FE}">
   <ds:schemaRefs>
@@ -1936,6 +1936,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C33A2374-AF59-47C8-B91C-EBD14FA4FF35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f9853051-2fc0-46db-a70f-64559884f8a6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD8097E-75D2-4018-98EC-DD12A33F35A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1951,20 +1967,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C33A2374-AF59-47C8-B91C-EBD14FA4FF35}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f9853051-2fc0-46db-a70f-64559884f8a6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Availability.xlsx
+++ b/Availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kilianleemann/Documents/HSG/Master/MLE/3_Semester/Programming with Advanced Computer Languages/Project/hsg-workplanapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC5C896-08FE-E642-B36E-3A667B69A49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347CBFC4-EF69-A14E-A286-0E118E9788F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{687A566E-9070-F143-8DF5-DB9B81D5A7DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -71,37 +71,31 @@
     <t>16-18</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
+    <t>Lukas</t>
+  </si>
+  <si>
+    <t>Lynn</t>
+  </si>
+  <si>
+    <t>Fabian</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Dominic</t>
+  </si>
+  <si>
+    <t>Laurin</t>
+  </si>
+  <si>
+    <t>Frederic</t>
+  </si>
+  <si>
+    <t>Kilian</t>
+  </si>
+  <si>
+    <t>Colin</t>
   </si>
 </sst>
 </file>
@@ -138,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,12 +157,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -446,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,13 +465,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D21FA8F-5738-5049-B058-9F6E32680BD3}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -880,45 +862,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="34" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="31" t="s">
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="16" t="s">
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -967,7 +949,7 @@
       <c r="Q2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="S2" s="2" t="s">
@@ -979,549 +961,549 @@
       <c r="U2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="17"/>
+      <c r="V2" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="18">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19">
-        <v>1</v>
-      </c>
-      <c r="D3" s="19">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20">
-        <v>1</v>
-      </c>
-      <c r="F3" s="18">
-        <v>1</v>
-      </c>
-      <c r="G3" s="19">
-        <v>1</v>
-      </c>
-      <c r="H3" s="19">
-        <v>1</v>
-      </c>
-      <c r="I3" s="20">
-        <v>1</v>
-      </c>
-      <c r="J3" s="18">
-        <v>1</v>
-      </c>
-      <c r="K3" s="19">
-        <v>1</v>
-      </c>
-      <c r="L3" s="19">
-        <v>1</v>
-      </c>
-      <c r="M3" s="20">
-        <v>1</v>
-      </c>
-      <c r="N3" s="18">
-        <v>1</v>
-      </c>
-      <c r="O3" s="19">
-        <v>1</v>
-      </c>
-      <c r="P3" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="20">
-        <v>1</v>
-      </c>
-      <c r="R3" s="18">
-        <v>1</v>
-      </c>
-      <c r="S3" s="19">
-        <v>1</v>
-      </c>
-      <c r="T3" s="19">
-        <v>1</v>
-      </c>
-      <c r="U3" s="20">
-        <v>1</v>
-      </c>
-      <c r="V3" s="21">
-        <v>8</v>
+      <c r="B3" s="16">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
+        <v>3</v>
+      </c>
+      <c r="G3" s="17">
+        <v>3</v>
+      </c>
+      <c r="H3" s="17">
+        <v>3</v>
+      </c>
+      <c r="I3" s="18">
+        <v>3</v>
+      </c>
+      <c r="J3" s="16">
+        <v>2</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0</v>
+      </c>
+      <c r="L3" s="17">
+        <v>0</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0</v>
+      </c>
+      <c r="N3" s="16">
+        <v>0</v>
+      </c>
+      <c r="O3" s="17">
+        <v>0</v>
+      </c>
+      <c r="P3" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>0</v>
+      </c>
+      <c r="R3" s="16">
+        <v>0</v>
+      </c>
+      <c r="S3" s="17">
+        <v>0</v>
+      </c>
+      <c r="T3" s="17">
+        <v>0</v>
+      </c>
+      <c r="U3" s="18">
+        <v>0</v>
+      </c>
+      <c r="V3" s="19">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
+        <v>3</v>
+      </c>
+      <c r="D4" s="21">
+        <v>3</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="23">
+      <c r="G4" s="21">
         <v>1</v>
       </c>
-      <c r="D4" s="23">
+      <c r="H4" s="21">
         <v>1</v>
       </c>
-      <c r="E4" s="24">
+      <c r="I4" s="22">
         <v>1</v>
       </c>
-      <c r="F4" s="22">
-        <v>1</v>
-      </c>
-      <c r="G4" s="23">
-        <v>1</v>
-      </c>
-      <c r="H4" s="23">
-        <v>1</v>
-      </c>
-      <c r="I4" s="24">
-        <v>1</v>
-      </c>
-      <c r="J4" s="22">
-        <v>1</v>
-      </c>
-      <c r="K4" s="23">
-        <v>1</v>
-      </c>
-      <c r="L4" s="23">
-        <v>1</v>
-      </c>
-      <c r="M4" s="24">
-        <v>1</v>
-      </c>
-      <c r="N4" s="22">
-        <v>1</v>
-      </c>
-      <c r="O4" s="23">
-        <v>1</v>
-      </c>
-      <c r="P4" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="24">
-        <v>1</v>
-      </c>
-      <c r="R4" s="25">
-        <v>1</v>
-      </c>
-      <c r="S4" s="23">
-        <v>1</v>
-      </c>
-      <c r="T4" s="23">
-        <v>2</v>
-      </c>
-      <c r="U4" s="24">
-        <v>1</v>
-      </c>
-      <c r="V4" s="26">
-        <v>8</v>
+      <c r="J4" s="20">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <v>2</v>
+      </c>
+      <c r="L4" s="21">
+        <v>2</v>
+      </c>
+      <c r="M4" s="22">
+        <v>2</v>
+      </c>
+      <c r="N4" s="20">
+        <v>3</v>
+      </c>
+      <c r="O4" s="21">
+        <v>3</v>
+      </c>
+      <c r="P4" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>0</v>
+      </c>
+      <c r="R4" s="23">
+        <v>0</v>
+      </c>
+      <c r="S4" s="21">
+        <v>0</v>
+      </c>
+      <c r="T4" s="21">
+        <v>0</v>
+      </c>
+      <c r="U4" s="22">
+        <v>0</v>
+      </c>
+      <c r="V4" s="24">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="27">
-        <v>2</v>
-      </c>
-      <c r="C5" s="28">
-        <v>2</v>
-      </c>
-      <c r="D5" s="28">
-        <v>2</v>
-      </c>
-      <c r="E5" s="29">
-        <v>2</v>
-      </c>
-      <c r="F5" s="27">
-        <v>2</v>
-      </c>
-      <c r="G5" s="28">
-        <v>2</v>
-      </c>
-      <c r="H5" s="28">
-        <v>2</v>
-      </c>
-      <c r="I5" s="29">
-        <v>2</v>
-      </c>
-      <c r="J5" s="27">
-        <v>2</v>
-      </c>
-      <c r="K5" s="28">
-        <v>2</v>
-      </c>
-      <c r="L5" s="28">
-        <v>2</v>
-      </c>
-      <c r="M5" s="29">
-        <v>2</v>
-      </c>
-      <c r="N5" s="27">
-        <v>2</v>
-      </c>
-      <c r="O5" s="28">
-        <v>2</v>
-      </c>
-      <c r="P5" s="28">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="29">
-        <v>2</v>
-      </c>
-      <c r="R5" s="30">
-        <v>2</v>
-      </c>
-      <c r="S5" s="28">
-        <v>2</v>
-      </c>
-      <c r="T5" s="28">
-        <v>2</v>
-      </c>
-      <c r="U5" s="29">
-        <v>2</v>
-      </c>
-      <c r="V5" s="26">
-        <v>8</v>
+      <c r="B5" s="25">
+        <v>2</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26">
+        <v>2</v>
+      </c>
+      <c r="E5" s="27">
+        <v>2</v>
+      </c>
+      <c r="F5" s="25">
+        <v>3</v>
+      </c>
+      <c r="G5" s="26">
+        <v>3</v>
+      </c>
+      <c r="H5" s="26">
+        <v>3</v>
+      </c>
+      <c r="I5" s="27">
+        <v>3</v>
+      </c>
+      <c r="J5" s="25">
+        <v>1</v>
+      </c>
+      <c r="K5" s="26">
+        <v>1</v>
+      </c>
+      <c r="L5" s="26">
+        <v>1</v>
+      </c>
+      <c r="M5" s="27">
+        <v>0</v>
+      </c>
+      <c r="N5" s="25">
+        <v>1</v>
+      </c>
+      <c r="O5" s="26">
+        <v>0</v>
+      </c>
+      <c r="P5" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>0</v>
+      </c>
+      <c r="R5" s="28">
+        <v>2</v>
+      </c>
+      <c r="S5" s="26">
+        <v>2</v>
+      </c>
+      <c r="T5" s="26">
+        <v>2</v>
+      </c>
+      <c r="U5" s="27">
+        <v>2</v>
+      </c>
+      <c r="V5" s="24">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="22">
-        <v>3</v>
-      </c>
-      <c r="C6" s="23">
-        <v>3</v>
-      </c>
-      <c r="D6" s="23">
-        <v>3</v>
-      </c>
-      <c r="E6" s="24">
-        <v>3</v>
-      </c>
-      <c r="F6" s="22">
-        <v>3</v>
-      </c>
-      <c r="G6" s="23">
-        <v>3</v>
-      </c>
-      <c r="H6" s="23">
-        <v>3</v>
-      </c>
-      <c r="I6" s="24">
-        <v>3</v>
-      </c>
-      <c r="J6" s="22">
-        <v>3</v>
-      </c>
-      <c r="K6" s="23">
-        <v>3</v>
-      </c>
-      <c r="L6" s="23">
-        <v>3</v>
-      </c>
-      <c r="M6" s="24">
-        <v>3</v>
-      </c>
-      <c r="N6" s="22">
-        <v>3</v>
-      </c>
-      <c r="O6" s="23">
-        <v>3</v>
-      </c>
-      <c r="P6" s="23">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="24">
-        <v>3</v>
-      </c>
-      <c r="R6" s="25">
-        <v>2</v>
-      </c>
-      <c r="S6" s="23">
-        <v>2</v>
-      </c>
-      <c r="T6" s="23">
-        <v>2</v>
-      </c>
-      <c r="U6" s="24">
-        <v>2</v>
-      </c>
-      <c r="V6" s="26">
-        <v>8</v>
+      <c r="B6" s="20">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="20">
+        <v>3</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
+        <v>2</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
+        <v>0</v>
+      </c>
+      <c r="M6" s="22">
+        <v>2</v>
+      </c>
+      <c r="N6" s="20">
+        <v>0</v>
+      </c>
+      <c r="O6" s="21">
+        <v>0</v>
+      </c>
+      <c r="P6" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>3</v>
+      </c>
+      <c r="R6" s="23">
+        <v>0</v>
+      </c>
+      <c r="S6" s="21">
+        <v>0</v>
+      </c>
+      <c r="T6" s="21">
+        <v>3</v>
+      </c>
+      <c r="U6" s="22">
+        <v>2</v>
+      </c>
+      <c r="V6" s="24">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="27">
-        <v>0</v>
-      </c>
-      <c r="C7" s="28">
-        <v>2</v>
-      </c>
-      <c r="D7" s="28">
-        <v>3</v>
-      </c>
-      <c r="E7" s="29">
-        <v>3</v>
-      </c>
-      <c r="F7" s="27">
-        <v>1</v>
-      </c>
-      <c r="G7" s="28">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28">
-        <v>0</v>
-      </c>
-      <c r="I7" s="29">
-        <v>0</v>
-      </c>
-      <c r="J7" s="27">
-        <v>0</v>
-      </c>
-      <c r="K7" s="28">
-        <v>2</v>
-      </c>
-      <c r="L7" s="28">
-        <v>2</v>
-      </c>
-      <c r="M7" s="29">
-        <v>2</v>
-      </c>
-      <c r="N7" s="27">
-        <v>0</v>
-      </c>
-      <c r="O7" s="28">
-        <v>0</v>
-      </c>
-      <c r="P7" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="29">
-        <v>0</v>
-      </c>
-      <c r="R7" s="30">
-        <v>0</v>
-      </c>
-      <c r="S7" s="28">
-        <v>2</v>
-      </c>
-      <c r="T7" s="28">
-        <v>3</v>
-      </c>
-      <c r="U7" s="29">
-        <v>2</v>
-      </c>
-      <c r="V7" s="26">
-        <v>10</v>
+      <c r="B7" s="25">
+        <v>0</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+      <c r="D7" s="26">
+        <v>2</v>
+      </c>
+      <c r="E7" s="27">
+        <v>2</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <v>2</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="27">
+        <v>3</v>
+      </c>
+      <c r="N7" s="25">
+        <v>3</v>
+      </c>
+      <c r="O7" s="26">
+        <v>0</v>
+      </c>
+      <c r="P7" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>3</v>
+      </c>
+      <c r="R7" s="28">
+        <v>2</v>
+      </c>
+      <c r="S7" s="26">
+        <v>2</v>
+      </c>
+      <c r="T7" s="26">
+        <v>2</v>
+      </c>
+      <c r="U7" s="27">
+        <v>2</v>
+      </c>
+      <c r="V7" s="24">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="22">
-        <v>3</v>
-      </c>
-      <c r="C8" s="23">
-        <v>3</v>
-      </c>
-      <c r="D8" s="23">
+      <c r="B8" s="20">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21">
+        <v>3</v>
+      </c>
+      <c r="D8" s="21">
+        <v>3</v>
+      </c>
+      <c r="E8" s="22">
+        <v>3</v>
+      </c>
+      <c r="F8" s="20">
+        <v>2</v>
+      </c>
+      <c r="G8" s="21">
+        <v>2</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21">
+        <v>2</v>
+      </c>
+      <c r="L8" s="21">
+        <v>2</v>
+      </c>
+      <c r="M8" s="22">
+        <v>2</v>
+      </c>
+      <c r="N8" s="20">
         <v>1</v>
       </c>
-      <c r="E8" s="24">
-        <v>0</v>
-      </c>
-      <c r="F8" s="22">
-        <v>0</v>
-      </c>
-      <c r="G8" s="23">
-        <v>3</v>
-      </c>
-      <c r="H8" s="23">
-        <v>2</v>
-      </c>
-      <c r="I8" s="24">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22">
-        <v>0</v>
-      </c>
-      <c r="K8" s="23">
-        <v>0</v>
-      </c>
-      <c r="L8" s="23">
-        <v>0</v>
-      </c>
-      <c r="M8" s="24">
-        <v>0</v>
-      </c>
-      <c r="N8" s="22">
-        <v>0</v>
-      </c>
-      <c r="O8" s="23">
-        <v>2</v>
-      </c>
-      <c r="P8" s="23">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="24">
-        <v>0</v>
-      </c>
-      <c r="R8" s="25">
-        <v>2</v>
-      </c>
-      <c r="S8" s="23">
-        <v>2</v>
-      </c>
-      <c r="T8" s="23">
-        <v>2</v>
-      </c>
-      <c r="U8" s="24">
-        <v>0</v>
-      </c>
-      <c r="V8" s="26">
-        <v>12</v>
+      <c r="O8" s="21">
+        <v>1</v>
+      </c>
+      <c r="P8" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>0</v>
+      </c>
+      <c r="R8" s="23">
+        <v>1</v>
+      </c>
+      <c r="S8" s="21">
+        <v>1</v>
+      </c>
+      <c r="T8" s="21">
+        <v>1</v>
+      </c>
+      <c r="U8" s="22">
+        <v>1</v>
+      </c>
+      <c r="V8" s="24">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="27">
-        <v>0</v>
-      </c>
-      <c r="C9" s="28">
-        <v>3</v>
-      </c>
-      <c r="D9" s="28">
-        <v>2</v>
-      </c>
-      <c r="E9" s="29">
-        <v>1</v>
-      </c>
-      <c r="F9" s="27">
-        <v>1</v>
-      </c>
-      <c r="G9" s="28">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28">
-        <v>2</v>
-      </c>
-      <c r="I9" s="29">
-        <v>0</v>
-      </c>
-      <c r="J9" s="27">
-        <v>0</v>
-      </c>
-      <c r="K9" s="28">
-        <v>0</v>
-      </c>
-      <c r="L9" s="28">
-        <v>0</v>
-      </c>
-      <c r="M9" s="29">
-        <v>0</v>
-      </c>
-      <c r="N9" s="27">
-        <v>0</v>
-      </c>
-      <c r="O9" s="28">
-        <v>2</v>
-      </c>
-      <c r="P9" s="28">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="29">
-        <v>0</v>
-      </c>
-      <c r="R9" s="30">
-        <v>1</v>
-      </c>
-      <c r="S9" s="28">
-        <v>2</v>
-      </c>
-      <c r="T9" s="28">
-        <v>0</v>
-      </c>
-      <c r="U9" s="29">
-        <v>0</v>
-      </c>
-      <c r="V9" s="26">
-        <v>12</v>
+      <c r="B9" s="25">
+        <v>2</v>
+      </c>
+      <c r="C9" s="26">
+        <v>2</v>
+      </c>
+      <c r="D9" s="26">
+        <v>2</v>
+      </c>
+      <c r="E9" s="27">
+        <v>2</v>
+      </c>
+      <c r="F9" s="25">
+        <v>2</v>
+      </c>
+      <c r="G9" s="26">
+        <v>2</v>
+      </c>
+      <c r="H9" s="26">
+        <v>2</v>
+      </c>
+      <c r="I9" s="27">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25">
+        <v>3</v>
+      </c>
+      <c r="K9" s="26">
+        <v>3</v>
+      </c>
+      <c r="L9" s="26">
+        <v>3</v>
+      </c>
+      <c r="M9" s="27">
+        <v>3</v>
+      </c>
+      <c r="N9" s="25">
+        <v>2</v>
+      </c>
+      <c r="O9" s="26">
+        <v>2</v>
+      </c>
+      <c r="P9" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>2</v>
+      </c>
+      <c r="R9" s="28">
+        <v>2</v>
+      </c>
+      <c r="S9" s="26">
+        <v>2</v>
+      </c>
+      <c r="T9" s="26">
+        <v>2</v>
+      </c>
+      <c r="U9" s="27">
+        <v>0</v>
+      </c>
+      <c r="V9" s="24">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="20">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="21">
+        <v>3</v>
+      </c>
+      <c r="E10" s="22">
+        <v>2</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
+        <v>2</v>
+      </c>
+      <c r="I10" s="22">
+        <v>2</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0</v>
+      </c>
+      <c r="K10" s="21">
+        <v>0</v>
+      </c>
+      <c r="L10" s="21">
+        <v>0</v>
+      </c>
+      <c r="M10" s="22">
+        <v>3</v>
+      </c>
+      <c r="N10" s="20">
+        <v>3</v>
+      </c>
+      <c r="O10" s="21">
+        <v>3</v>
+      </c>
+      <c r="P10" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>2</v>
+      </c>
+      <c r="R10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="23">
-        <v>2</v>
-      </c>
-      <c r="D10" s="23">
-        <v>3</v>
-      </c>
-      <c r="E10" s="24">
-        <v>0</v>
-      </c>
-      <c r="F10" s="22">
-        <v>0</v>
-      </c>
-      <c r="G10" s="23">
-        <v>3</v>
-      </c>
-      <c r="H10" s="23">
-        <v>2</v>
-      </c>
-      <c r="I10" s="24">
+      <c r="S10" s="21">
         <v>1</v>
       </c>
-      <c r="J10" s="22">
-        <v>0</v>
-      </c>
-      <c r="K10" s="23">
-        <v>2</v>
-      </c>
-      <c r="L10" s="23">
-        <v>2</v>
-      </c>
-      <c r="M10" s="24">
-        <v>2</v>
-      </c>
-      <c r="N10" s="22">
-        <v>0</v>
-      </c>
-      <c r="O10" s="23">
-        <v>0</v>
-      </c>
-      <c r="P10" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="24">
-        <v>0</v>
-      </c>
-      <c r="R10" s="25">
-        <v>0</v>
-      </c>
-      <c r="S10" s="23">
-        <v>0</v>
-      </c>
-      <c r="T10" s="23">
-        <v>3</v>
-      </c>
-      <c r="U10" s="24">
-        <v>3</v>
-      </c>
-      <c r="V10" s="26">
+      <c r="T10" s="21">
+        <v>1</v>
+      </c>
+      <c r="U10" s="22">
+        <v>1</v>
+      </c>
+      <c r="V10" s="24">
         <v>12</v>
       </c>
     </row>
@@ -1529,204 +1511,68 @@
       <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="27">
-        <v>3</v>
-      </c>
-      <c r="C11" s="28">
-        <v>3</v>
-      </c>
-      <c r="D11" s="28">
-        <v>3</v>
-      </c>
-      <c r="E11" s="29">
-        <v>3</v>
-      </c>
-      <c r="F11" s="27">
-        <v>3</v>
-      </c>
-      <c r="G11" s="28">
-        <v>3</v>
-      </c>
-      <c r="H11" s="28">
-        <v>3</v>
-      </c>
-      <c r="I11" s="29">
-        <v>3</v>
-      </c>
-      <c r="J11" s="27">
-        <v>3</v>
-      </c>
-      <c r="K11" s="28">
-        <v>3</v>
-      </c>
-      <c r="L11" s="28">
-        <v>3</v>
-      </c>
-      <c r="M11" s="29">
-        <v>3</v>
-      </c>
-      <c r="N11" s="27">
-        <v>3</v>
-      </c>
-      <c r="O11" s="28">
-        <v>3</v>
-      </c>
-      <c r="P11" s="28">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="29">
-        <v>3</v>
-      </c>
-      <c r="R11" s="30">
-        <v>3</v>
-      </c>
-      <c r="S11" s="28">
-        <v>3</v>
-      </c>
-      <c r="T11" s="28">
-        <v>3</v>
-      </c>
-      <c r="U11" s="29">
-        <v>3</v>
-      </c>
-      <c r="V11" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="22">
-        <v>3</v>
-      </c>
-      <c r="C12" s="23">
-        <v>3</v>
-      </c>
-      <c r="D12" s="23">
-        <v>3</v>
-      </c>
-      <c r="E12" s="24">
-        <v>3</v>
-      </c>
-      <c r="F12" s="22">
-        <v>3</v>
-      </c>
-      <c r="G12" s="23">
-        <v>3</v>
-      </c>
-      <c r="H12" s="23">
-        <v>3</v>
-      </c>
-      <c r="I12" s="24">
-        <v>3</v>
-      </c>
-      <c r="J12" s="22">
-        <v>3</v>
-      </c>
-      <c r="K12" s="23">
-        <v>3</v>
-      </c>
-      <c r="L12" s="23">
-        <v>3</v>
-      </c>
-      <c r="M12" s="24">
-        <v>3</v>
-      </c>
-      <c r="N12" s="22">
-        <v>3</v>
-      </c>
-      <c r="O12" s="23">
-        <v>3</v>
-      </c>
-      <c r="P12" s="23">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="24">
-        <v>3</v>
-      </c>
-      <c r="R12" s="25">
-        <v>3</v>
-      </c>
-      <c r="S12" s="23">
-        <v>3</v>
-      </c>
-      <c r="T12" s="23">
-        <v>3</v>
-      </c>
-      <c r="U12" s="24">
-        <v>3</v>
-      </c>
-      <c r="V12" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="27">
-        <v>3</v>
-      </c>
-      <c r="C13" s="28">
-        <v>3</v>
-      </c>
-      <c r="D13" s="28">
-        <v>3</v>
-      </c>
-      <c r="E13" s="29">
-        <v>3</v>
-      </c>
-      <c r="F13" s="27">
-        <v>3</v>
-      </c>
-      <c r="G13" s="28">
-        <v>3</v>
-      </c>
-      <c r="H13" s="28">
-        <v>3</v>
-      </c>
-      <c r="I13" s="29">
-        <v>3</v>
-      </c>
-      <c r="J13" s="27">
-        <v>3</v>
-      </c>
-      <c r="K13" s="28">
-        <v>3</v>
-      </c>
-      <c r="L13" s="28">
-        <v>3</v>
-      </c>
-      <c r="M13" s="29">
-        <v>3</v>
-      </c>
-      <c r="N13" s="27">
-        <v>3</v>
-      </c>
-      <c r="O13" s="28">
-        <v>3</v>
-      </c>
-      <c r="P13" s="28">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="29">
-        <v>3</v>
-      </c>
-      <c r="R13" s="30">
-        <v>3</v>
-      </c>
-      <c r="S13" s="28">
-        <v>3</v>
-      </c>
-      <c r="T13" s="28">
-        <v>3</v>
-      </c>
-      <c r="U13" s="29">
-        <v>3</v>
-      </c>
-      <c r="V13" s="26">
-        <v>10</v>
+      <c r="B11" s="25">
+        <v>0</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
+        <v>3</v>
+      </c>
+      <c r="G11" s="26">
+        <v>3</v>
+      </c>
+      <c r="H11" s="26">
+        <v>3</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0</v>
+      </c>
+      <c r="K11" s="26">
+        <v>0</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0</v>
+      </c>
+      <c r="M11" s="27">
+        <v>0</v>
+      </c>
+      <c r="N11" s="25">
+        <v>3</v>
+      </c>
+      <c r="O11" s="26">
+        <v>2</v>
+      </c>
+      <c r="P11" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>2</v>
+      </c>
+      <c r="R11" s="28">
+        <v>0</v>
+      </c>
+      <c r="S11" s="26">
+        <v>0</v>
+      </c>
+      <c r="T11" s="26">
+        <v>0</v>
+      </c>
+      <c r="U11" s="27">
+        <v>0</v>
+      </c>
+      <c r="V11" s="24">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1743,21 +1589,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010017C71A42271A274DA461E095D9401325" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="30aafbe8ec0b55f3bf6040fa90919087">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9853051-2fc0-46db-a70f-64559884f8a6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6cc360300f9f06ae66523ed34dd87d6" ns2:_="">
     <xsd:import namespace="f9853051-2fc0-46db-a70f-64559884f8a6"/>
@@ -1927,31 +1758,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5593E7EE-975F-4520-932F-F8B899ECF7FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C33A2374-AF59-47C8-B91C-EBD14FA4FF35}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f9853051-2fc0-46db-a70f-64559884f8a6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD8097E-75D2-4018-98EC-DD12A33F35A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1967,4 +1789,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5593E7EE-975F-4520-932F-F8B899ECF7FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C33A2374-AF59-47C8-B91C-EBD14FA4FF35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f9853051-2fc0-46db-a70f-64559884f8a6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Availability.xlsx
+++ b/Availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kilianleemann/Documents/HSG/Master/MLE/3_Semester/Programming with Advanced Computer Languages/Project/hsg-workplanapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347CBFC4-EF69-A14E-A286-0E118E9788F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E1C9B2-2D9A-4E4F-9F50-294B1E47B75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{687A566E-9070-F143-8DF5-DB9B81D5A7DC}"/>
   </bookViews>
@@ -851,7 +851,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="24">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -1589,6 +1589,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010017C71A42271A274DA461E095D9401325" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="30aafbe8ec0b55f3bf6040fa90919087">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9853051-2fc0-46db-a70f-64559884f8a6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6cc360300f9f06ae66523ed34dd87d6" ns2:_="">
     <xsd:import namespace="f9853051-2fc0-46db-a70f-64559884f8a6"/>
@@ -1758,22 +1773,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C33A2374-AF59-47C8-B91C-EBD14FA4FF35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f9853051-2fc0-46db-a70f-64559884f8a6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5593E7EE-975F-4520-932F-F8B899ECF7FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD8097E-75D2-4018-98EC-DD12A33F35A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1789,28 +1813,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5593E7EE-975F-4520-932F-F8B899ECF7FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C33A2374-AF59-47C8-B91C-EBD14FA4FF35}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f9853051-2fc0-46db-a70f-64559884f8a6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Availability.xlsx
+++ b/Availability.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kilianleemann/Documents/HSG/Master/MLE/3_Semester/Programming with Advanced Computer Languages/Project/hsg-workplanapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E1C9B2-2D9A-4E4F-9F50-294B1E47B75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E76B5A2-63B4-8F4D-AB16-D623430F85BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{687A566E-9070-F143-8DF5-DB9B81D5A7DC}"/>
   </bookViews>
@@ -71,31 +71,31 @@
     <t>16-18</t>
   </si>
   <si>
-    <t>Lukas</t>
-  </si>
-  <si>
-    <t>Lynn</t>
-  </si>
-  <si>
-    <t>Fabian</t>
-  </si>
-  <si>
-    <t>Robin</t>
-  </si>
-  <si>
-    <t>Dominic</t>
-  </si>
-  <si>
-    <t>Laurin</t>
-  </si>
-  <si>
-    <t>Frederic</t>
-  </si>
-  <si>
-    <t>Kilian</t>
-  </si>
-  <si>
-    <t>Colin</t>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Katharina</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markus </t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Thomas</t>
   </si>
 </sst>
 </file>
@@ -851,7 +851,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1595,15 +1595,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010017C71A42271A274DA461E095D9401325" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="30aafbe8ec0b55f3bf6040fa90919087">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9853051-2fc0-46db-a70f-64559884f8a6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6cc360300f9f06ae66523ed34dd87d6" ns2:_="">
     <xsd:import namespace="f9853051-2fc0-46db-a70f-64559884f8a6"/>
@@ -1773,6 +1764,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C33A2374-AF59-47C8-B91C-EBD14FA4FF35}">
   <ds:schemaRefs>
@@ -1790,14 +1790,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5593E7EE-975F-4520-932F-F8B899ECF7FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD8097E-75D2-4018-98EC-DD12A33F35A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1813,4 +1805,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5593E7EE-975F-4520-932F-F8B899ECF7FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>